--- a/pd/data.XLSX
+++ b/pd/data.XLSX
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnNguyen\Desktop\Go_Ex\pd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B204285-C646-4C0B-A244-42E52B7E4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2485C953-DB32-42FD-8F3F-3AADA725211F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="okr_org" sheetId="1" r:id="rId1"/>
     <sheet name="okr_period" sheetId="2" r:id="rId2"/>
     <sheet name="okr_obj" sheetId="3" r:id="rId3"/>
     <sheet name="okr_user" sheetId="4" r:id="rId4"/>
+    <sheet name="okr_kr" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="150">
   <si>
     <t>6ba7b810-9dad-11d1-80b4-00c04fd430c8</t>
   </si>
@@ -466,6 +467,18 @@
   </si>
   <si>
     <t>SW</t>
+  </si>
+  <si>
+    <t>553aa97a-1c1c-458f-9d91-2e3115b911e8</t>
+  </si>
+  <si>
+    <t>a44c0490-9b8b-4450-aca3-67a57e655fe3</t>
+  </si>
+  <si>
+    <t>1bade02e-7510-4503-bd55-0c94d1bf47d6</t>
+  </si>
+  <si>
+    <t>226488fe-af46-435d-8c7a-e0295568c011</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1077,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1929,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D47302E-13E7-49BD-BE5A-2184CE539883}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H12"/>
     </sheetView>
   </sheetViews>
@@ -2264,4 +2277,232 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0FF856-4526-49AF-A8D3-0D46CDB80768}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.7265625" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" customWidth="1"/>
+    <col min="3" max="3" width="42.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" customWidth="1"/>
+    <col min="14" max="14" width="35.1796875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>12.5</v>
+      </c>
+      <c r="H1">
+        <v>12.5</v>
+      </c>
+      <c r="I1" s="3">
+        <v>44251</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3">
+        <v>44251</v>
+      </c>
+      <c r="M1" s="3">
+        <v>44251</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3">
+        <v>44251</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>23.5</v>
+      </c>
+      <c r="H2">
+        <v>23.5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44252</v>
+      </c>
+      <c r="J2">
+        <v>8.5</v>
+      </c>
+      <c r="K2">
+        <v>8.5</v>
+      </c>
+      <c r="L2" s="3">
+        <v>44252</v>
+      </c>
+      <c r="M2" s="3">
+        <v>44252</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="3">
+        <v>44252</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>34.5</v>
+      </c>
+      <c r="H3">
+        <v>34.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44253</v>
+      </c>
+      <c r="J3">
+        <v>7.5</v>
+      </c>
+      <c r="K3">
+        <v>7.5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>44253</v>
+      </c>
+      <c r="M3" s="3">
+        <v>44253</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="3">
+        <v>44253</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>8.5</v>
+      </c>
+      <c r="H4">
+        <v>8.5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44254</v>
+      </c>
+      <c r="J4">
+        <v>8.5</v>
+      </c>
+      <c r="K4">
+        <v>8.5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>44254</v>
+      </c>
+      <c r="M4" s="3">
+        <v>44254</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="3">
+        <v>44254</v>
+      </c>
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>